--- a/BergerMsfaApi/wwwroot/examples/DealerStatusLastYearAppointed.xlsx
+++ b/BergerMsfaApi/wwwroot/examples/DealerStatusLastYearAppointed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\BergerMsfa\BergerMsfaApi\wwwroot\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8FCD05-3903-43D4-8B2F-D38FC659EA3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2FB20D-D84F-4183-9277-8FDBB446B939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9E579742-9BF0-4910-B42B-FB189EA35B65}"/>
   </bookViews>
@@ -64,7 +64,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -87,11 +87,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -103,6 +148,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -422,7 +476,7 @@
   <dimension ref="A1:A699"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A2" sqref="A2:A374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -430,1151 +484,1875 @@
     <col min="1" max="1" width="12.453125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-    </row>
-    <row r="30" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
-    </row>
-    <row r="33" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
-    </row>
-    <row r="34" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
-    </row>
-    <row r="35" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
-    </row>
-    <row r="36" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
-    </row>
-    <row r="37" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
-    </row>
-    <row r="38" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
-    </row>
-    <row r="39" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
-    </row>
-    <row r="40" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
-    </row>
-    <row r="41" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
-    </row>
-    <row r="42" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
-    </row>
-    <row r="43" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
-    </row>
-    <row r="44" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
-    </row>
-    <row r="45" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
-    </row>
-    <row r="46" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
-    </row>
-    <row r="47" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
-    </row>
-    <row r="48" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
-    </row>
-    <row r="49" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
-    </row>
-    <row r="50" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
-    </row>
-    <row r="51" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
-    </row>
-    <row r="52" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="2"/>
-    </row>
-    <row r="53" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
-    </row>
-    <row r="54" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="2"/>
-    </row>
-    <row r="55" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
-    </row>
-    <row r="56" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
-    </row>
-    <row r="57" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="2"/>
-    </row>
-    <row r="58" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="2"/>
-    </row>
-    <row r="59" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="2"/>
-    </row>
-    <row r="60" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="2"/>
-    </row>
-    <row r="61" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="2"/>
-    </row>
-    <row r="62" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="2"/>
-    </row>
-    <row r="63" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="2"/>
-    </row>
-    <row r="64" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="2"/>
-    </row>
-    <row r="65" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="2"/>
-    </row>
-    <row r="66" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="2"/>
-    </row>
-    <row r="67" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="2"/>
-    </row>
-    <row r="68" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="2"/>
-    </row>
-    <row r="69" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="2"/>
-    </row>
-    <row r="70" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="2"/>
-    </row>
-    <row r="71" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="2"/>
-    </row>
-    <row r="72" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="2"/>
-    </row>
-    <row r="73" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="2"/>
-    </row>
-    <row r="74" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="2"/>
-    </row>
-    <row r="75" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="2"/>
-    </row>
-    <row r="76" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="2"/>
-    </row>
-    <row r="77" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="2"/>
-    </row>
-    <row r="78" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="2"/>
-    </row>
-    <row r="79" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="2"/>
-    </row>
-    <row r="80" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A80" s="2"/>
-    </row>
-    <row r="81" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="2"/>
-    </row>
-    <row r="82" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A82" s="2"/>
-    </row>
-    <row r="83" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A83" s="2"/>
-    </row>
-    <row r="84" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A84" s="2"/>
-    </row>
-    <row r="85" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="2"/>
-    </row>
-    <row r="86" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="2"/>
-    </row>
-    <row r="87" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="2"/>
-    </row>
-    <row r="88" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A88" s="2"/>
-    </row>
-    <row r="89" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A89" s="2"/>
-    </row>
-    <row r="90" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A90" s="2"/>
-    </row>
-    <row r="91" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A91" s="2"/>
-    </row>
-    <row r="92" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A92" s="2"/>
-    </row>
-    <row r="93" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="2"/>
-    </row>
-    <row r="94" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="2"/>
-    </row>
-    <row r="95" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A95" s="2"/>
-    </row>
-    <row r="96" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A96" s="2"/>
-    </row>
-    <row r="97" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A97" s="2"/>
-    </row>
-    <row r="98" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A98" s="2"/>
-    </row>
-    <row r="99" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A99" s="2"/>
-    </row>
-    <row r="100" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A100" s="2"/>
-    </row>
-    <row r="101" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A101" s="2"/>
-    </row>
-    <row r="102" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A102" s="2"/>
-    </row>
-    <row r="103" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A103" s="2"/>
-    </row>
-    <row r="104" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A104" s="2"/>
-    </row>
-    <row r="105" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A105" s="2"/>
-    </row>
-    <row r="106" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A106" s="2"/>
-    </row>
-    <row r="107" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A107" s="2"/>
-    </row>
-    <row r="108" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A108" s="2"/>
-    </row>
-    <row r="109" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A109" s="2"/>
-    </row>
-    <row r="110" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A110" s="2"/>
-    </row>
-    <row r="111" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A111" s="2"/>
-    </row>
-    <row r="112" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A112" s="2"/>
-    </row>
-    <row r="113" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A113" s="2"/>
-    </row>
-    <row r="114" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A114" s="2"/>
-    </row>
-    <row r="115" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A115" s="2"/>
-    </row>
-    <row r="116" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A116" s="2"/>
-    </row>
-    <row r="117" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A117" s="2"/>
-    </row>
-    <row r="118" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A118" s="2"/>
-    </row>
-    <row r="119" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A119" s="2"/>
-    </row>
-    <row r="120" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A120" s="2"/>
-    </row>
-    <row r="121" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A121" s="2"/>
-    </row>
-    <row r="122" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A122" s="2"/>
-    </row>
-    <row r="123" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A123" s="2"/>
-    </row>
-    <row r="124" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A124" s="2"/>
-    </row>
-    <row r="125" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A125" s="2"/>
-    </row>
-    <row r="126" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A126" s="2"/>
-    </row>
-    <row r="127" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A127" s="2"/>
-    </row>
-    <row r="128" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A128" s="2"/>
-    </row>
-    <row r="129" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A129" s="2"/>
-    </row>
-    <row r="130" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A130" s="2"/>
-    </row>
-    <row r="131" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A131" s="2"/>
-    </row>
-    <row r="132" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A132" s="2"/>
-    </row>
-    <row r="133" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A133" s="2"/>
-    </row>
-    <row r="134" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A134" s="2"/>
-    </row>
-    <row r="135" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A135" s="2"/>
-    </row>
-    <row r="136" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A136" s="2"/>
-    </row>
-    <row r="137" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A137" s="2"/>
-    </row>
-    <row r="138" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A138" s="2"/>
-    </row>
-    <row r="139" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A139" s="2"/>
-    </row>
-    <row r="140" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A140" s="2"/>
-    </row>
-    <row r="141" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A141" s="2"/>
-    </row>
-    <row r="142" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A142" s="2"/>
-    </row>
-    <row r="143" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A143" s="2"/>
-    </row>
-    <row r="144" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A144" s="2"/>
-    </row>
-    <row r="145" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A145" s="2"/>
-    </row>
-    <row r="146" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A146" s="2"/>
-    </row>
-    <row r="147" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A147" s="2"/>
-    </row>
-    <row r="148" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A148" s="2"/>
-    </row>
-    <row r="149" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A149" s="2"/>
-    </row>
-    <row r="150" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A150" s="2"/>
-    </row>
-    <row r="151" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A151" s="2"/>
-    </row>
-    <row r="152" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A152" s="2"/>
-    </row>
-    <row r="153" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A153" s="2"/>
-    </row>
-    <row r="154" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A154" s="2"/>
-    </row>
-    <row r="155" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A155" s="2"/>
-    </row>
-    <row r="156" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A156" s="2"/>
-    </row>
-    <row r="157" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A157" s="2"/>
-    </row>
-    <row r="158" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A158" s="2"/>
-    </row>
-    <row r="159" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A159" s="2"/>
-    </row>
-    <row r="160" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A160" s="2"/>
-    </row>
-    <row r="161" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A161" s="2"/>
-    </row>
-    <row r="162" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A162" s="2"/>
-    </row>
-    <row r="163" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A163" s="2"/>
-    </row>
-    <row r="164" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A164" s="2"/>
-    </row>
-    <row r="165" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A165" s="2"/>
-    </row>
-    <row r="166" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A166" s="2"/>
-    </row>
-    <row r="167" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A167" s="2"/>
-    </row>
-    <row r="168" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A168" s="2"/>
-    </row>
-    <row r="169" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A169" s="2"/>
-    </row>
-    <row r="170" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A170" s="2"/>
-    </row>
-    <row r="171" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A171" s="2"/>
-    </row>
-    <row r="172" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A172" s="2"/>
-    </row>
-    <row r="173" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A173" s="2"/>
-    </row>
-    <row r="174" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A174" s="2"/>
-    </row>
-    <row r="175" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A175" s="2"/>
-    </row>
-    <row r="176" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A176" s="2"/>
-    </row>
-    <row r="177" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A177" s="2"/>
-    </row>
-    <row r="178" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A178" s="2"/>
-    </row>
-    <row r="179" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A179" s="2"/>
-    </row>
-    <row r="180" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A180" s="2"/>
-    </row>
-    <row r="181" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A181" s="2"/>
-    </row>
-    <row r="182" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A182" s="2"/>
-    </row>
-    <row r="183" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A183" s="2"/>
-    </row>
-    <row r="184" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A184" s="2"/>
-    </row>
-    <row r="185" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A185" s="2"/>
-    </row>
-    <row r="186" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A186" s="2"/>
-    </row>
-    <row r="187" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A187" s="2"/>
-    </row>
-    <row r="188" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A188" s="2"/>
-    </row>
-    <row r="189" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A189" s="2"/>
-    </row>
-    <row r="190" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A190" s="2"/>
-    </row>
-    <row r="191" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A191" s="2"/>
-    </row>
-    <row r="192" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A192" s="2"/>
-    </row>
-    <row r="193" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A193" s="2"/>
-    </row>
-    <row r="194" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A194" s="2"/>
-    </row>
-    <row r="195" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A195" s="2"/>
-    </row>
-    <row r="196" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A196" s="2"/>
-    </row>
-    <row r="197" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A197" s="2"/>
-    </row>
-    <row r="198" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A198" s="2"/>
-    </row>
-    <row r="199" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A199" s="2"/>
-    </row>
-    <row r="200" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A200" s="2"/>
-    </row>
-    <row r="201" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A201" s="2"/>
-    </row>
-    <row r="202" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A202" s="2"/>
-    </row>
-    <row r="203" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A203" s="2"/>
-    </row>
-    <row r="204" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A204" s="2"/>
-    </row>
-    <row r="205" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A205" s="2"/>
-    </row>
-    <row r="206" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A206" s="2"/>
-    </row>
-    <row r="207" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A207" s="2"/>
-    </row>
-    <row r="208" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A208" s="2"/>
-    </row>
-    <row r="209" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A209" s="2"/>
-    </row>
-    <row r="210" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A210" s="2"/>
-    </row>
-    <row r="211" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A211" s="2"/>
-    </row>
-    <row r="212" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A212" s="2"/>
-    </row>
-    <row r="213" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A213" s="2"/>
-    </row>
-    <row r="214" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A214" s="2"/>
-    </row>
-    <row r="215" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A215" s="2"/>
-    </row>
-    <row r="216" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A216" s="2"/>
-    </row>
-    <row r="217" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A217" s="2"/>
-    </row>
-    <row r="218" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A218" s="2"/>
-    </row>
-    <row r="219" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A219" s="2"/>
-    </row>
-    <row r="220" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A220" s="2"/>
-    </row>
-    <row r="221" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A221" s="2"/>
-    </row>
-    <row r="222" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A222" s="2"/>
-    </row>
-    <row r="223" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A223" s="2"/>
-    </row>
-    <row r="224" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A224" s="2"/>
-    </row>
-    <row r="225" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A225" s="2"/>
-    </row>
-    <row r="226" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A226" s="2"/>
-    </row>
-    <row r="227" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A227" s="2"/>
-    </row>
-    <row r="228" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A228" s="2"/>
-    </row>
-    <row r="229" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A229" s="2"/>
-    </row>
-    <row r="230" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A230" s="2"/>
-    </row>
-    <row r="231" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A231" s="2"/>
-    </row>
-    <row r="232" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A232" s="2"/>
-    </row>
-    <row r="233" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A233" s="2"/>
-    </row>
-    <row r="234" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A234" s="2"/>
-    </row>
-    <row r="235" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A235" s="2"/>
-    </row>
-    <row r="236" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A236" s="2"/>
-    </row>
-    <row r="237" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A237" s="2"/>
-    </row>
-    <row r="238" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A238" s="2"/>
-    </row>
-    <row r="239" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A239" s="2"/>
-    </row>
-    <row r="240" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A240" s="2"/>
-    </row>
-    <row r="241" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A241" s="2"/>
-    </row>
-    <row r="242" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A242" s="2"/>
-    </row>
-    <row r="243" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A243" s="2"/>
-    </row>
-    <row r="244" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A244" s="2"/>
-    </row>
-    <row r="245" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A245" s="2"/>
-    </row>
-    <row r="246" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A246" s="2"/>
-    </row>
-    <row r="247" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A247" s="2"/>
-    </row>
-    <row r="248" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A248" s="2"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A249" s="2"/>
-    </row>
-    <row r="250" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A250" s="2"/>
-    </row>
-    <row r="251" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A251" s="2"/>
-    </row>
-    <row r="252" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A252" s="2"/>
-    </row>
-    <row r="253" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A253" s="2"/>
-    </row>
-    <row r="254" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A254" s="2"/>
-    </row>
-    <row r="255" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A255" s="2"/>
-    </row>
-    <row r="256" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A256" s="2"/>
-    </row>
-    <row r="257" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A257" s="2"/>
-    </row>
-    <row r="258" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A258" s="2"/>
-    </row>
-    <row r="259" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A259" s="2"/>
-    </row>
-    <row r="260" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A260" s="2"/>
-    </row>
-    <row r="261" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A261" s="2"/>
-    </row>
-    <row r="262" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A262" s="2"/>
-    </row>
-    <row r="263" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A263" s="2"/>
-    </row>
-    <row r="264" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A264" s="2"/>
-    </row>
-    <row r="265" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A265" s="2"/>
-    </row>
-    <row r="266" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A266" s="2"/>
-    </row>
-    <row r="267" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A267" s="2"/>
-    </row>
-    <row r="268" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A268" s="2"/>
-    </row>
-    <row r="269" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A269" s="2"/>
-    </row>
-    <row r="270" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A270" s="2"/>
-    </row>
-    <row r="271" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A271" s="2"/>
-    </row>
-    <row r="272" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A272" s="2"/>
-    </row>
-    <row r="273" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A273" s="2"/>
-    </row>
-    <row r="274" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A274" s="2"/>
-    </row>
-    <row r="275" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A275" s="2"/>
-    </row>
-    <row r="276" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A276" s="2"/>
-    </row>
-    <row r="277" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A277" s="2"/>
-    </row>
-    <row r="278" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A278" s="2"/>
-    </row>
-    <row r="279" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A279" s="2"/>
-    </row>
-    <row r="280" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A280" s="2"/>
-    </row>
-    <row r="281" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A281" s="2"/>
-    </row>
-    <row r="282" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A282" s="2"/>
-    </row>
-    <row r="283" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A283" s="2"/>
-    </row>
-    <row r="284" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A284" s="2"/>
-    </row>
-    <row r="285" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A285" s="2"/>
-    </row>
-    <row r="286" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A286" s="2"/>
-    </row>
-    <row r="287" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A287" s="2"/>
-    </row>
-    <row r="288" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A288" s="2"/>
-    </row>
-    <row r="289" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A289" s="2"/>
-    </row>
-    <row r="290" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A290" s="2"/>
-    </row>
-    <row r="291" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A291" s="2"/>
-    </row>
-    <row r="292" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A292" s="2"/>
-    </row>
-    <row r="293" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A293" s="2"/>
-    </row>
-    <row r="294" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A294" s="2"/>
-    </row>
-    <row r="295" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A295" s="2"/>
-    </row>
-    <row r="296" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A296" s="2"/>
-    </row>
-    <row r="297" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A297" s="2"/>
-    </row>
-    <row r="298" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A298" s="2"/>
-    </row>
-    <row r="299" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A299" s="2"/>
-    </row>
-    <row r="300" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A300" s="2"/>
-    </row>
-    <row r="301" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A301" s="2"/>
-    </row>
-    <row r="302" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A302" s="2"/>
-    </row>
-    <row r="303" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A303" s="2"/>
-    </row>
-    <row r="304" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A304" s="2"/>
-    </row>
-    <row r="305" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A305" s="2"/>
-    </row>
-    <row r="306" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A306" s="2"/>
-    </row>
-    <row r="307" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A307" s="2"/>
-    </row>
-    <row r="308" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A308" s="2"/>
-    </row>
-    <row r="309" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A309" s="2"/>
-    </row>
-    <row r="310" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A310" s="2"/>
-    </row>
-    <row r="311" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A311" s="2"/>
-    </row>
-    <row r="312" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A312" s="2"/>
-    </row>
-    <row r="313" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A313" s="2"/>
-    </row>
-    <row r="314" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A314" s="2"/>
-    </row>
-    <row r="315" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A315" s="2"/>
-    </row>
-    <row r="316" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A316" s="2"/>
-    </row>
-    <row r="317" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A317" s="2"/>
-    </row>
-    <row r="318" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A318" s="2"/>
-    </row>
-    <row r="319" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A319" s="2"/>
-    </row>
-    <row r="320" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A320" s="2"/>
-    </row>
-    <row r="321" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A321" s="2"/>
-    </row>
-    <row r="322" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A322" s="2"/>
-    </row>
-    <row r="323" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A323" s="2"/>
-    </row>
-    <row r="324" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A324" s="2"/>
-    </row>
-    <row r="325" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A325" s="2"/>
-    </row>
-    <row r="326" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A326" s="2"/>
-    </row>
-    <row r="327" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A327" s="2"/>
-    </row>
-    <row r="328" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A328" s="2"/>
-    </row>
-    <row r="329" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A329" s="2"/>
-    </row>
-    <row r="330" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A330" s="2"/>
-    </row>
-    <row r="331" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A331" s="2"/>
-    </row>
-    <row r="332" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A332" s="2"/>
-    </row>
-    <row r="333" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A333" s="2"/>
-    </row>
-    <row r="334" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A334" s="2"/>
-    </row>
-    <row r="335" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A335" s="2"/>
-    </row>
-    <row r="336" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A336" s="2"/>
-    </row>
-    <row r="337" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A337" s="2"/>
-    </row>
-    <row r="338" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A338" s="2"/>
-    </row>
-    <row r="339" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A339" s="2"/>
-    </row>
-    <row r="340" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A340" s="2"/>
-    </row>
-    <row r="341" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A341" s="2"/>
-    </row>
-    <row r="342" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A342" s="2"/>
-    </row>
-    <row r="343" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A343" s="2"/>
-    </row>
-    <row r="344" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A344" s="2"/>
-    </row>
-    <row r="345" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A345" s="2"/>
-    </row>
-    <row r="346" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A346" s="2"/>
-    </row>
-    <row r="347" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A347" s="2"/>
-    </row>
-    <row r="348" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A348" s="2"/>
-    </row>
-    <row r="349" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A349" s="2"/>
-    </row>
-    <row r="350" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A350" s="2"/>
-    </row>
-    <row r="351" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A351" s="2"/>
-    </row>
-    <row r="352" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A352" s="2"/>
-    </row>
-    <row r="353" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A353" s="2"/>
-    </row>
-    <row r="354" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A354" s="2"/>
-    </row>
-    <row r="355" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A355" s="2"/>
-    </row>
-    <row r="356" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A356" s="2"/>
-    </row>
-    <row r="357" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A357" s="2"/>
-    </row>
-    <row r="358" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A358" s="2"/>
-    </row>
-    <row r="359" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A359" s="2"/>
-    </row>
-    <row r="360" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A360" s="2"/>
-    </row>
-    <row r="361" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A361" s="2"/>
-    </row>
-    <row r="362" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A362" s="2"/>
-    </row>
-    <row r="363" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A363" s="2"/>
-    </row>
-    <row r="364" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A364" s="2"/>
-    </row>
-    <row r="365" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A365" s="2"/>
-    </row>
-    <row r="366" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A366" s="2"/>
-    </row>
-    <row r="367" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A367" s="2"/>
-    </row>
-    <row r="368" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A368" s="2"/>
-    </row>
-    <row r="369" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A369" s="2"/>
-    </row>
-    <row r="370" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A370" s="2"/>
-    </row>
-    <row r="371" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A371" s="2"/>
-    </row>
-    <row r="372" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A372" s="2"/>
-    </row>
-    <row r="373" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A373" s="2"/>
-    </row>
-    <row r="374" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A374" s="2"/>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>4045</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>4067</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>4074</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>4107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>4110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>4147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>51548</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>51549</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>51564</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
+        <v>51565</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
+        <v>51568</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
+        <v>51573</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
+        <v>51576</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
+        <v>51578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
+        <v>51581</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
+        <v>51595</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
+        <v>51596</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="6">
+        <v>51598</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="6">
+        <v>51599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="6">
+        <v>51600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="6">
+        <v>51603</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="6">
+        <v>51604</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
+        <v>51610</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="6">
+        <v>51617</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="6">
+        <v>51619</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="6">
+        <v>51638</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="6">
+        <v>51643</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="6">
+        <v>51657</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="6">
+        <v>51660</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="6">
+        <v>51661</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="6">
+        <v>100955</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="6">
+        <v>100956</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="6">
+        <v>100960</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="6">
+        <v>100961</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="6">
+        <v>100962</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="6">
+        <v>100963</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="6">
+        <v>100964</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="6">
+        <v>100966</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="6">
+        <v>100967</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" s="6">
+        <v>100968</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="6">
+        <v>100971</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="6">
+        <v>100972</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="6">
+        <v>100974</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="6">
+        <v>100975</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="6">
+        <v>100976</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="6">
+        <v>100977</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="6">
+        <v>100978</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" s="6">
+        <v>100979</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="6">
+        <v>100981</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="6">
+        <v>100982</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" s="6">
+        <v>150724</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" s="6">
+        <v>150725</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" s="6">
+        <v>150726</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" s="6">
+        <v>150729</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" s="6">
+        <v>150734</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" s="6">
+        <v>150736</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" s="6">
+        <v>150739</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="6">
+        <v>150740</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="6">
+        <v>150741</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="6">
+        <v>150744</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="6">
+        <v>150745</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" s="6">
+        <v>200550</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="6">
+        <v>200551</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" s="6">
+        <v>200552</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" s="6">
+        <v>200553</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" s="6">
+        <v>200554</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" s="6">
+        <v>200555</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" s="6">
+        <v>200556</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" s="6">
+        <v>200557</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" s="6">
+        <v>200561</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" s="6">
+        <v>200562</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" s="6">
+        <v>200565</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" s="6">
+        <v>200566</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" s="6">
+        <v>200567</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" s="6">
+        <v>200568</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" s="6">
+        <v>200569</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" s="6">
+        <v>200570</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" s="6">
+        <v>200571</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" s="6">
+        <v>200572</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" s="6">
+        <v>200573</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" s="6">
+        <v>200574</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" s="6">
+        <v>200575</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" s="6">
+        <v>200576</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" s="6">
+        <v>200577</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" s="6">
+        <v>200580</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" s="6">
+        <v>200582</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94" s="6">
+        <v>200583</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" s="6">
+        <v>200584</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" s="6">
+        <v>200585</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="6">
+        <v>200590</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="6">
+        <v>200592</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" s="6">
+        <v>200593</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" s="6">
+        <v>200594</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" s="6">
+        <v>200595</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" s="6">
+        <v>200596</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" s="6">
+        <v>200597</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" s="6">
+        <v>200598</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" s="6">
+        <v>200599</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" s="6">
+        <v>200600</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" s="6">
+        <v>200601</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108" s="6">
+        <v>200602</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109" s="6">
+        <v>200603</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110" s="6">
+        <v>200604</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111" s="6">
+        <v>200605</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112" s="6">
+        <v>200606</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" s="6">
+        <v>200607</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114" s="6">
+        <v>200608</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115" s="6">
+        <v>200609</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" s="6">
+        <v>200610</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117" s="6">
+        <v>200611</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118" s="6">
+        <v>200612</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A119" s="6">
+        <v>200613</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A120" s="6">
+        <v>200614</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A121" s="6">
+        <v>200615</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122" s="6">
+        <v>200616</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A123" s="6">
+        <v>200617</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A124" s="6">
+        <v>250638</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A125" s="6">
+        <v>250639</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A126" s="6">
+        <v>250640</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A127" s="6">
+        <v>250641</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A128" s="6">
+        <v>250642</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A129" s="6">
+        <v>250643</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130" s="6">
+        <v>250648</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A131" s="6">
+        <v>250649</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A132" s="6">
+        <v>250650</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A133" s="6">
+        <v>250653</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A134" s="6">
+        <v>250654</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A135" s="6">
+        <v>250655</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A136" s="6">
+        <v>250656</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A137" s="6">
+        <v>250659</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A138" s="6">
+        <v>250660</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A139" s="6">
+        <v>250664</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A140" s="6">
+        <v>250665</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A141" s="6">
+        <v>250666</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A142" s="6">
+        <v>250667</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A143" s="6">
+        <v>250669</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A144" s="6">
+        <v>250672</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145" s="6">
+        <v>250673</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146" s="6">
+        <v>250674</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A147" s="6">
+        <v>250675</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A148" s="6">
+        <v>250676</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A149" s="6">
+        <v>250677</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A150" s="6">
+        <v>300913</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A151" s="6">
+        <v>300916</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A152" s="6">
+        <v>300917</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A153" s="6">
+        <v>300918</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A154" s="6">
+        <v>300923</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A155" s="6">
+        <v>300924</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A156" s="6">
+        <v>300925</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A157" s="6">
+        <v>300926</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A158" s="6">
+        <v>300927</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A159" s="6">
+        <v>300928</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A160" s="6">
+        <v>300929</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A161" s="6">
+        <v>300930</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A162" s="6">
+        <v>300931</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A163" s="6">
+        <v>300932</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A164" s="6">
+        <v>300933</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A165" s="6">
+        <v>300934</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A166" s="6">
+        <v>300935</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A167" s="6">
+        <v>300936</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A168" s="6">
+        <v>300938</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A169" s="6">
+        <v>300939</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A170" s="6">
+        <v>300940</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A171" s="6">
+        <v>300941</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A172" s="6">
+        <v>300942</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A173" s="6">
+        <v>300943</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A174" s="6">
+        <v>300951</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A175" s="6">
+        <v>300952</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A176" s="6">
+        <v>300953</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A177" s="6">
+        <v>300954</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A178" s="6">
+        <v>300958</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A179" s="6">
+        <v>300959</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A180" s="6">
+        <v>300961</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A181" s="6">
+        <v>300962</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A182" s="6">
+        <v>300963</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A183" s="6">
+        <v>300964</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A184" s="6">
+        <v>300965</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A185" s="6">
+        <v>300966</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A186" s="6">
+        <v>300967</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A187" s="6">
+        <v>300969</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A188" s="6">
+        <v>300970</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A189" s="6">
+        <v>300971</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A190" s="6">
+        <v>300975</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A191" s="6">
+        <v>300976</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A192" s="6">
+        <v>350656</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A193" s="6">
+        <v>350661</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A194" s="6">
+        <v>350662</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A195" s="6">
+        <v>350666</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A196" s="6">
+        <v>350667</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A197" s="6">
+        <v>350668</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A198" s="6">
+        <v>350669</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A199" s="6">
+        <v>350670</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A200" s="6">
+        <v>350673</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A201" s="6">
+        <v>350674</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A202" s="6">
+        <v>350675</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A203" s="6">
+        <v>350677</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A204" s="6">
+        <v>350681</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A205" s="6">
+        <v>350682</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A206" s="6">
+        <v>350683</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A207" s="6">
+        <v>350684</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A208" s="6">
+        <v>350685</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A209" s="6">
+        <v>350687</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A210" s="6">
+        <v>350689</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A211" s="6">
+        <v>3100000500</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A212" s="6">
+        <v>3100000501</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A213" s="6">
+        <v>3100000502</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A214" s="6">
+        <v>3100000503</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A215" s="6">
+        <v>3100000504</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A216" s="6">
+        <v>3100000505</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A217" s="6">
+        <v>3100000510</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A218" s="6">
+        <v>3100000515</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A219" s="6">
+        <v>3100000516</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A220" s="6">
+        <v>3100000517</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A221" s="6">
+        <v>3100000518</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A222" s="6">
+        <v>3100000519</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A223" s="6">
+        <v>3100000520</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A224" s="6">
+        <v>3100000521</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A225" s="6">
+        <v>3100000522</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A226" s="6">
+        <v>3100000523</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A227" s="6">
+        <v>3100000524</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A228" s="6">
+        <v>3100000525</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A229" s="6">
+        <v>3100000526</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A230" s="6">
+        <v>3100000527</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A231" s="6">
+        <v>3100000528</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A232" s="6">
+        <v>3100000529</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A233" s="6">
+        <v>3100000530</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A234" s="6">
+        <v>3100000531</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A235" s="6">
+        <v>3100000535</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A236" s="6">
+        <v>3100000536</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A237" s="6">
+        <v>3100000540</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A238" s="6">
+        <v>3100000541</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A239" s="6">
+        <v>3100000542</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A240" s="6">
+        <v>3100000543</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A241" s="6">
+        <v>3100000544</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A242" s="6">
+        <v>3100000545</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A243" s="6">
+        <v>3100000546</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A244" s="6">
+        <v>3100000547</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A245" s="6">
+        <v>3100000548</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A246" s="6">
+        <v>3100000549</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A247" s="6">
+        <v>3100000550</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A248" s="6">
+        <v>3100000551</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A249" s="6">
+        <v>3100000552</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A250" s="6">
+        <v>3100000553</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A251" s="6">
+        <v>3100000554</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A252" s="6">
+        <v>3100000555</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A253" s="6">
+        <v>3100000556</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A254" s="6">
+        <v>810256</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A255" s="6">
+        <v>810257</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A256" s="6">
+        <v>810261</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A257" s="6">
+        <v>810262</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A258" s="6">
+        <v>810266</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A259" s="6">
+        <v>810267</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A260" s="6">
+        <v>810268</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A261" s="6">
+        <v>810269</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A262" s="6">
+        <v>810270</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A263" s="6">
+        <v>810271</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A264" s="6">
+        <v>810276</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A265" s="6">
+        <v>810281</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A266" s="6">
+        <v>810283</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A267" s="6">
+        <v>810285</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A268" s="6">
+        <v>810286</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A269" s="6">
+        <v>810287</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A270" s="6">
+        <v>860255</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A271" s="6">
+        <v>860256</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A272" s="6">
+        <v>860257</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A273" s="6">
+        <v>860260</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A274" s="6">
+        <v>860261</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A275" s="6">
+        <v>860262</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A276" s="6">
+        <v>860263</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A277" s="6">
+        <v>860265</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A278" s="6">
+        <v>860266</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A279" s="6">
+        <v>860267</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A280" s="6">
+        <v>860268</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A281" s="6">
+        <v>860269</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A282" s="6">
+        <v>860270</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A283" s="6">
+        <v>860271</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A284" s="6">
+        <v>860272</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A285" s="6">
+        <v>860273</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A286" s="6">
+        <v>860274</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A287" s="6">
+        <v>860275</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A288" s="6">
+        <v>860276</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A289" s="6">
+        <v>860278</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A290" s="6">
+        <v>860279</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A291" s="6">
+        <v>860281</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A292" s="6">
+        <v>860282</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A293" s="6">
+        <v>860283</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A294" s="6">
+        <v>860284</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A295" s="6">
+        <v>860286</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A296" s="6">
+        <v>860287</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A297" s="6">
+        <v>860288</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A298" s="6">
+        <v>980720</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A299" s="6">
+        <v>980723</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A300" s="6">
+        <v>980724</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A301" s="6">
+        <v>980725</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A302" s="6">
+        <v>980746</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A303" s="6">
+        <v>980747</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A304" s="6">
+        <v>980749</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A305" s="6">
+        <v>980756</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A306" s="6">
+        <v>980758</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A307" s="6">
+        <v>980761</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A308" s="6">
+        <v>980763</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A309" s="6">
+        <v>980766</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A310" s="6">
+        <v>980767</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A311" s="6">
+        <v>980771</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A312" s="6">
+        <v>980772</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A313" s="6">
+        <v>980773</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A314" s="6">
+        <v>980774</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A315" s="6">
+        <v>980778</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A316" s="6">
+        <v>980779</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A317" s="6">
+        <v>980783</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A318" s="6">
+        <v>980785</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A319" s="6">
+        <v>980786</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A320" s="6">
+        <v>980787</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A321" s="6">
+        <v>980791</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A322" s="6">
+        <v>980796</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A323" s="6">
+        <v>980801</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A324" s="6">
+        <v>980802</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A325" s="6">
+        <v>1899206</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A326" s="6">
+        <v>1899211</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A327" s="6">
+        <v>1899216</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A328" s="6">
+        <v>1899217</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A329" s="6">
+        <v>1899218</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A330" s="6">
+        <v>1899219</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A331" s="6">
+        <v>1899220</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A332" s="6">
+        <v>1899221</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A333" s="6">
+        <v>1899222</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A334" s="6">
+        <v>1899223</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A335" s="6">
+        <v>1899228</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A336" s="6">
+        <v>1899230</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A337" s="6">
+        <v>1899231</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A338" s="6">
+        <v>1899233</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A339" s="6">
+        <v>1899234</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A340" s="6">
+        <v>1899237</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A341" s="6">
+        <v>1899238</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A342" s="6">
+        <v>1999431</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A343" s="6">
+        <v>1999436</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A344" s="6">
+        <v>1999441</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A345" s="6">
+        <v>1999451</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A346" s="6">
+        <v>1999452</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A347" s="6">
+        <v>1999453</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A348" s="6">
+        <v>1999455</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A349" s="6">
+        <v>1999456</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A350" s="6">
+        <v>1999458</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A351" s="6">
+        <v>1999460</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A352" s="6">
+        <v>1999465</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A353" s="6">
+        <v>1999466</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A354" s="6">
+        <v>1999469</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A355" s="6">
+        <v>1999471</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A356" s="6">
+        <v>1999474</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A357" s="6">
+        <v>1999475</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A358" s="6">
+        <v>1999476</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A359" s="6">
+        <v>1999480</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A360" s="6">
+        <v>1999482</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A361" s="6">
+        <v>1999486</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A362" s="6">
+        <v>1999488</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A363" s="6">
+        <v>1999491</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A364" s="6">
+        <v>1999492</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A365" s="6">
+        <v>1999494</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A366" s="6">
+        <v>1999495</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A367" s="6">
+        <v>1999497</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A368" s="6">
+        <v>1999503</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A369" s="6">
+        <v>1999513</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A370" s="6">
+        <v>1999524</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A371" s="6">
+        <v>1999527</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A372" s="6">
+        <v>1999528</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A373" s="6">
+        <v>1999531</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A374" s="7">
+        <v>1999541</v>
+      </c>
     </row>
     <row r="375" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A375" s="2"/>
